--- a/data/trans_orig/P21D_4_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{837CB0AF-C2E2-4A08-B39A-6FDF7FE3F6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4095C0E9-1E35-401E-8E52-FAF8530FC484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E4208C3-6589-4A16-82BD-3D4BB5DEDA06}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3FA74154-AC83-4FE7-B1E7-DFC361BA7A60}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
   <si>
     <t>Población que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -113,13 +113,13 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>3,99%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,13%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>98,69%</t>
@@ -128,13 +128,13 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>96,01%</t>
+    <t>95,53%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>97,87%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -146,19 +146,19 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -167,19 +167,19 @@
     <t>98,99%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -188,7 +188,7 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>1,94%</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -197,28 +197,28 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,66%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,36%</t>
+    <t>98,06%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>98,34%</t>
+    <t>98,09%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -227,10 +227,10 @@
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -239,130 +239,124 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>2,24%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>97,78%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>97,76%</t>
   </si>
   <si>
     <t>65 y más</t>
   </si>
   <si>
-    <t>0,96%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>99,78%</t>
+    <t>99,79%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>0,08%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>99,92%</t>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -777,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C186F86C-EA98-483B-859D-A1754CC5BFC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB51D5F-4010-4949-8C30-D4E71FE008B5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1554,10 +1548,10 @@
         <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,10 +1566,10 @@
         <v>253794</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1587,13 +1581,13 @@
         <v>243725</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>680</v>
@@ -1602,13 +1596,13 @@
         <v>497520</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,7 +1658,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1682,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -1691,13 +1685,13 @@
         <v>2846</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -1706,13 +1700,13 @@
         <v>3446</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,7 +1724,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1742,13 +1736,13 @@
         <v>390517</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>1145</v>
@@ -1757,13 +1751,13 @@
         <v>683368</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,13 +1825,13 @@
         <v>3522</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -1846,10 +1840,10 @@
         <v>14182</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>98</v>
@@ -1861,13 +1855,13 @@
         <v>17704</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,13 +1876,13 @@
         <v>1515009</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>2351</v>
@@ -1897,13 +1891,13 @@
         <v>1668352</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M23" s="7">
         <v>3807</v>
@@ -1912,13 +1906,13 @@
         <v>3183361</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,7 +1968,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_4_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4095C0E9-1E35-401E-8E52-FAF8530FC484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7790385D-97D4-458D-B008-00452450AFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3FA74154-AC83-4FE7-B1E7-DFC361BA7A60}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AF28F72-5E53-49A9-B69C-56488AC3AE48}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -771,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB51D5F-4010-4949-8C30-D4E71FE008B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B14002F-1556-4C47-BCD4-81290C342DEF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_4_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7790385D-97D4-458D-B008-00452450AFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E33C1E-BEB9-4DBE-9F90-4AEA2673B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AF28F72-5E53-49A9-B69C-56488AC3AE48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C4285E1-CCA7-4D9C-8B19-95CC464F4772}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="110">
   <si>
     <t>Población que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -113,13 +113,13 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>3,99%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>98,69%</t>
@@ -128,13 +128,13 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>95,53%</t>
+    <t>96,01%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>97,73%</t>
+    <t>97,87%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -146,19 +146,19 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -167,19 +167,19 @@
     <t>98,99%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -188,7 +188,7 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,94%</t>
+    <t>1,64%</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -197,166 +197,172 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,91%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>0,12%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -771,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B14002F-1556-4C47-BCD4-81290C342DEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8143CF96-7C3D-456F-B1E2-5D954FA7BF4D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1548,10 +1554,10 @@
         <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,10 +1572,10 @@
         <v>253794</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1581,13 +1587,13 @@
         <v>243725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>680</v>
@@ -1596,13 +1602,13 @@
         <v>497520</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,7 +1664,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1676,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -1685,13 +1691,13 @@
         <v>2846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -1700,13 +1706,13 @@
         <v>3446</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,7 +1730,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1736,13 +1742,13 @@
         <v>390517</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>1145</v>
@@ -1751,13 +1757,13 @@
         <v>683368</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,13 +1831,13 @@
         <v>3522</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -1840,10 +1846,10 @@
         <v>14182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>98</v>
@@ -1855,13 +1861,13 @@
         <v>17704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1882,13 @@
         <v>1515009</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>2351</v>
@@ -1891,13 +1897,13 @@
         <v>1668352</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="M23" s="7">
         <v>3807</v>
@@ -1906,13 +1912,13 @@
         <v>3183361</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,7 +1974,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_4_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E33C1E-BEB9-4DBE-9F90-4AEA2673B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36CD6BC6-DF31-4251-B995-EE7E6AA54056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C4285E1-CCA7-4D9C-8B19-95CC464F4772}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C4C67097-BBFA-4031-AFF7-7F47EBA014C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="113">
   <si>
     <t>Población que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,265 +104,274 @@
     <t>98,93%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -777,8 +786,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8143CF96-7C3D-456F-B1E2-5D954FA7BF4D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411890E0-E5A7-4E98-908A-FDDA18490C05}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -949,7 +958,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -964,7 +973,7 @@
         <v>93</v>
       </c>
       <c r="I5" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -979,7 +988,7 @@
         <v>178</v>
       </c>
       <c r="N5" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1000,7 +1009,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1015,7 +1024,7 @@
         <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1030,7 +1039,7 @@
         <v>178</v>
       </c>
       <c r="N6" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1068,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2699</v>
+        <v>2498</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
@@ -1083,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2699</v>
+        <v>2498</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
@@ -1104,7 +1113,7 @@
         <v>145</v>
       </c>
       <c r="D8" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1119,7 +1128,7 @@
         <v>226</v>
       </c>
       <c r="I8" s="7">
-        <v>254130</v>
+        <v>288621</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>29</v>
@@ -1134,7 +1143,7 @@
         <v>371</v>
       </c>
       <c r="N8" s="7">
-        <v>460648</v>
+        <v>493343</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
@@ -1155,7 +1164,7 @@
         <v>145</v>
       </c>
       <c r="D9" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1170,7 +1179,7 @@
         <v>228</v>
       </c>
       <c r="I9" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1185,7 +1194,7 @@
         <v>373</v>
       </c>
       <c r="N9" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1217,37 +1226,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2788</v>
+        <v>2530</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2788</v>
+        <v>2530</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1259,13 +1268,13 @@
         <v>222</v>
       </c>
       <c r="D11" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1274,31 +1283,31 @@
         <v>391</v>
       </c>
       <c r="I11" s="7">
-        <v>274565</v>
+        <v>255159</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>613</v>
       </c>
       <c r="N11" s="7">
-        <v>498340</v>
+        <v>470645</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,7 +1319,7 @@
         <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1325,7 +1334,7 @@
         <v>395</v>
       </c>
       <c r="I12" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1340,7 +1349,7 @@
         <v>617</v>
       </c>
       <c r="N12" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1354,7 +1363,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1363,46 +1372,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1146</v>
+        <v>1114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>2176</v>
+        <v>2028</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>3321</v>
+        <v>3142</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1414,13 +1423,13 @@
         <v>295</v>
       </c>
       <c r="D14" s="7">
-        <v>346294</v>
+        <v>525444</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1429,31 +1438,31 @@
         <v>525</v>
       </c>
       <c r="I14" s="7">
-        <v>346760</v>
+        <v>318834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>820</v>
       </c>
       <c r="N14" s="7">
-        <v>693055</v>
+        <v>844277</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,7 +1474,7 @@
         <v>296</v>
       </c>
       <c r="D15" s="7">
-        <v>347440</v>
+        <v>526558</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1480,7 +1489,7 @@
         <v>528</v>
       </c>
       <c r="I15" s="7">
-        <v>348936</v>
+        <v>320862</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1495,7 +1504,7 @@
         <v>824</v>
       </c>
       <c r="N15" s="7">
-        <v>696376</v>
+        <v>847419</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1509,7 +1518,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1518,46 +1527,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1777</v>
+        <v>1697</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>3674</v>
+        <v>3390</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>5450</v>
+        <v>5087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,13 +1578,13 @@
         <v>276</v>
       </c>
       <c r="D17" s="7">
-        <v>253794</v>
+        <v>236807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1584,31 +1593,31 @@
         <v>404</v>
       </c>
       <c r="I17" s="7">
-        <v>243725</v>
+        <v>223302</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>680</v>
       </c>
       <c r="N17" s="7">
-        <v>497520</v>
+        <v>460109</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,7 +1629,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1635,7 +1644,7 @@
         <v>410</v>
       </c>
       <c r="I18" s="7">
-        <v>247399</v>
+        <v>226692</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1650,7 +1659,7 @@
         <v>688</v>
       </c>
       <c r="N18" s="7">
-        <v>502970</v>
+        <v>465196</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1664,55 +1673,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>2846</v>
+        <v>2620</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2620</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3446</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,49 +1730,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>433</v>
+        <v>242</v>
       </c>
       <c r="D20" s="7">
-        <v>292851</v>
+        <v>156354</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <v>368</v>
+      </c>
+      <c r="I20" s="7">
+        <v>182657</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>712</v>
-      </c>
-      <c r="I20" s="7">
-        <v>390517</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>610</v>
+      </c>
+      <c r="N20" s="7">
+        <v>339011</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1145</v>
-      </c>
-      <c r="N20" s="7">
-        <v>683368</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,10 +1781,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D21" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1787,10 +1796,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>718</v>
+        <v>374</v>
       </c>
       <c r="I21" s="7">
-        <v>393363</v>
+        <v>185277</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1802,10 +1811,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1152</v>
+        <v>616</v>
       </c>
       <c r="N21" s="7">
-        <v>686814</v>
+        <v>341631</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1819,55 +1828,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>3522</v>
+        <v>570</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="7">
-        <v>21</v>
-      </c>
-      <c r="I22" s="7">
-        <v>14182</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>570</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="7">
-        <v>25</v>
-      </c>
-      <c r="N22" s="7">
-        <v>17704</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,49 +1885,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1456</v>
+        <v>191</v>
       </c>
       <c r="D23" s="7">
-        <v>1515009</v>
+        <v>117636</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
-        <v>2351</v>
+        <v>344</v>
       </c>
       <c r="I23" s="7">
-        <v>1668352</v>
+        <v>170049</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>3807</v>
+        <v>535</v>
       </c>
       <c r="N23" s="7">
-        <v>3183361</v>
+        <v>287686</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,63 +1936,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>192</v>
+      </c>
+      <c r="D24" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>344</v>
+      </c>
+      <c r="I24" s="7">
+        <v>170049</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>536</v>
+      </c>
+      <c r="N24" s="7">
+        <v>288256</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3381</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="7">
+        <v>21</v>
+      </c>
+      <c r="I25" s="7">
+        <v>13066</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="7">
+        <v>25</v>
+      </c>
+      <c r="N25" s="7">
+        <v>16447</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1456</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1660397</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2351</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1578968</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3807</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3239365</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1460</v>
       </c>
-      <c r="D24" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1663778</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>2372</v>
       </c>
-      <c r="I24" s="7">
-        <v>1682534</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1592034</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3832</v>
       </c>
-      <c r="N24" s="7">
-        <v>3201065</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>109</v>
+      <c r="N27" s="7">
+        <v>3255812</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
